--- a/Database/Csaki/Elvetia.xlsx
+++ b/Database/Csaki/Elvetia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED871F19-2F2F-4FA3-BF02-AA9D22A1AC74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969A238E-D1D5-4F5B-A697-C4494D9FF23A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="1425" windowWidth="10125" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2846,6 +2846,104 @@
         <v>1981</v>
       </c>
     </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" s="2">
+        <v>35746</v>
+      </c>
+      <c r="C173" s="3">
+        <v>130</v>
+      </c>
+      <c r="D173" s="4">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" s="2">
+        <v>35927</v>
+      </c>
+      <c r="C174" s="3">
+        <v>181</v>
+      </c>
+      <c r="D174" s="4">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" s="2">
+        <v>36108</v>
+      </c>
+      <c r="C175" s="3">
+        <v>181</v>
+      </c>
+      <c r="D175" s="4">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" s="2">
+        <v>36269</v>
+      </c>
+      <c r="C176" s="3">
+        <v>161</v>
+      </c>
+      <c r="D176" s="4">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" s="2">
+        <v>36451</v>
+      </c>
+      <c r="C177" s="3">
+        <v>182</v>
+      </c>
+      <c r="D177" s="4">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" s="2">
+        <v>36603</v>
+      </c>
+      <c r="C178" s="3">
+        <v>152</v>
+      </c>
+      <c r="D178" s="4">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" s="2">
+        <v>36708</v>
+      </c>
+      <c r="C179" s="3">
+        <v>105</v>
+      </c>
+      <c r="D179" s="4">
+        <v>1987</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/Csaki/Elvetia.xlsx
+++ b/Database/Csaki/Elvetia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969A238E-D1D5-4F5B-A697-C4494D9FF23A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D913EB6F-72C3-4567-B691-38C846E733DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="1425" windowWidth="10125" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11535" yWindow="3045" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D179"/>
+  <dimension ref="A1:D188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2944,6 +2944,132 @@
         <v>1987</v>
       </c>
     </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" s="2">
+        <v>36895</v>
+      </c>
+      <c r="C180" s="3">
+        <v>187</v>
+      </c>
+      <c r="D180" s="4">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" s="2">
+        <v>37169</v>
+      </c>
+      <c r="C181" s="3">
+        <v>274</v>
+      </c>
+      <c r="D181" s="4">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" s="2">
+        <v>37403</v>
+      </c>
+      <c r="C182" s="3">
+        <v>234</v>
+      </c>
+      <c r="D182" s="4">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" s="2">
+        <v>37671</v>
+      </c>
+      <c r="C183" s="3">
+        <v>268</v>
+      </c>
+      <c r="D183" s="4">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" s="2">
+        <v>37924</v>
+      </c>
+      <c r="C184" s="3">
+        <v>253</v>
+      </c>
+      <c r="D184" s="4">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" s="2">
+        <v>38124</v>
+      </c>
+      <c r="C185" s="3">
+        <v>200</v>
+      </c>
+      <c r="D185" s="4">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" s="2">
+        <v>38252</v>
+      </c>
+      <c r="C186" s="3">
+        <v>128</v>
+      </c>
+      <c r="D186" s="4">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" s="2">
+        <v>38449</v>
+      </c>
+      <c r="C187" s="3">
+        <v>197</v>
+      </c>
+      <c r="D187" s="4">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" s="2">
+        <v>38760</v>
+      </c>
+      <c r="C188" s="3">
+        <v>311</v>
+      </c>
+      <c r="D188" s="4">
+        <v>1996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/Csaki/Elvetia.xlsx
+++ b/Database/Csaki/Elvetia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D913EB6F-72C3-4567-B691-38C846E733DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FF6DE1-BB2E-4CA0-BA01-95AC155F4666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11535" yWindow="3045" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:D192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="F186" sqref="F186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3070,6 +3070,62 @@
         <v>1996</v>
       </c>
     </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" s="2">
+        <v>39026</v>
+      </c>
+      <c r="C189" s="3">
+        <v>266</v>
+      </c>
+      <c r="D189" s="4">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" s="2">
+        <v>39332</v>
+      </c>
+      <c r="C190" s="3">
+        <v>306</v>
+      </c>
+      <c r="D190" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" s="2">
+        <v>39627</v>
+      </c>
+      <c r="C191" s="3">
+        <v>295</v>
+      </c>
+      <c r="D191" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" s="2">
+        <v>39903</v>
+      </c>
+      <c r="C192" s="3">
+        <v>276</v>
+      </c>
+      <c r="D192" s="4">
+        <v>2001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/Csaki/Elvetia.xlsx
+++ b/Database/Csaki/Elvetia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FF6DE1-BB2E-4CA0-BA01-95AC155F4666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FA4A20-97A9-42A3-A460-B92732A68697}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11535" yWindow="3045" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11535" yWindow="795" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D192"/>
+  <dimension ref="A1:D196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="F186" sqref="F186"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="E190" sqref="E190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3126,6 +3126,62 @@
         <v>2001</v>
       </c>
     </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" s="2">
+        <v>40060</v>
+      </c>
+      <c r="C193" s="3">
+        <v>157</v>
+      </c>
+      <c r="D193" s="4">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" s="2">
+        <v>40262</v>
+      </c>
+      <c r="C194" s="3">
+        <v>202</v>
+      </c>
+      <c r="D194" s="4">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" s="2">
+        <v>40645</v>
+      </c>
+      <c r="C195" s="3">
+        <v>383</v>
+      </c>
+      <c r="D195" s="4">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" s="2">
+        <v>41006</v>
+      </c>
+      <c r="C196" s="3">
+        <v>361</v>
+      </c>
+      <c r="D196" s="4">
+        <v>2003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/Csaki/Elvetia.xlsx
+++ b/Database/Csaki/Elvetia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FA4A20-97A9-42A3-A460-B92732A68697}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B163F771-9351-46D7-BF4C-A2B6674C791B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11535" yWindow="795" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D196"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="E190" sqref="E190"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3182,6 +3182,48 @@
         <v>2003</v>
       </c>
     </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" s="2">
+        <v>41346</v>
+      </c>
+      <c r="C197" s="3">
+        <v>340</v>
+      </c>
+      <c r="D197" s="4">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" s="2">
+        <v>41722</v>
+      </c>
+      <c r="C198" s="3">
+        <v>376</v>
+      </c>
+      <c r="D198" s="4">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" s="2">
+        <v>42014</v>
+      </c>
+      <c r="C199" s="3">
+        <v>292</v>
+      </c>
+      <c r="D199" s="4">
+        <v>2005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/Csaki/Elvetia.xlsx
+++ b/Database/Csaki/Elvetia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B163F771-9351-46D7-BF4C-A2B6674C791B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3578AE-2E3F-4EDF-9962-D05E2EAB6746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11535" yWindow="795" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11535" yWindow="1725" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:D207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="B199" sqref="B199"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="F204" sqref="F204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3224,6 +3224,118 @@
         <v>2005</v>
       </c>
     </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" s="2">
+        <v>42177</v>
+      </c>
+      <c r="C200" s="3">
+        <v>163</v>
+      </c>
+      <c r="D200" s="4">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" s="2">
+        <v>42393</v>
+      </c>
+      <c r="C201" s="3">
+        <v>216</v>
+      </c>
+      <c r="D201" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" s="2">
+        <v>42763</v>
+      </c>
+      <c r="C202" s="3">
+        <v>370</v>
+      </c>
+      <c r="D202" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" s="2">
+        <v>43127</v>
+      </c>
+      <c r="C203" s="3">
+        <v>364</v>
+      </c>
+      <c r="D203" s="4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" s="2">
+        <v>43532</v>
+      </c>
+      <c r="C204" s="3">
+        <v>405</v>
+      </c>
+      <c r="D204" s="4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" s="2">
+        <v>43957</v>
+      </c>
+      <c r="C205" s="3">
+        <v>425</v>
+      </c>
+      <c r="D205" s="4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" s="2">
+        <v>44401</v>
+      </c>
+      <c r="C206" s="3">
+        <v>444</v>
+      </c>
+      <c r="D206" s="4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" s="2">
+        <v>44592</v>
+      </c>
+      <c r="C207" s="3">
+        <v>191</v>
+      </c>
+      <c r="D207" s="4">
+        <v>2014</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/Csaki/Elvetia.xlsx
+++ b/Database/Csaki/Elvetia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3578AE-2E3F-4EDF-9962-D05E2EAB6746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F120FE-197F-4545-9DCE-61A493586DEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11535" yWindow="1725" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6000" yWindow="135" windowWidth="15165" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
   <definedNames>
     <definedName name="Daily_Cases" localSheetId="0">Sheet1!$C$2:$C$172</definedName>
     <definedName name="Deaths" localSheetId="0">Sheet1!$D$2:$D$172</definedName>
+    <definedName name="New_Text_Document" localSheetId="0">Sheet1!$D$208:$D$233</definedName>
+    <definedName name="New_Text_Document_1" localSheetId="0">Sheet1!$C$208:$C$233</definedName>
+    <definedName name="New_Text_Document_2" localSheetId="0">Sheet1!$B$208:$B$233</definedName>
     <definedName name="Total_Cases" localSheetId="0">Sheet1!$B$2:$B$172</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -45,7 +48,28 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{0DA10813-4BF5-4FB4-9FF6-ABD7C2653584}" name="Total Cases" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" xr16:uid="{A9FE87DB-10B8-4128-9564-03BFF824F00D}" name="New Text Document" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\Lajos Csaki\Desktop\New Text Document.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" xr16:uid="{F21269D6-D452-4F0D-A35B-21C6CE6BA720}" name="New Text Document1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\Lajos Csaki\Desktop\New Text Document.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" xr16:uid="{211C264F-95B3-4828-A91A-6751FDCD1B62}" name="New Text Document2" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\Lajos Csaki\Desktop\New Text Document.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" xr16:uid="{0DA10813-4BF5-4FB4-9FF6-ABD7C2653584}" name="Total Cases" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Lajos Csaki\Desktop\Total Cases.txt">
       <textFields>
         <textField/>
@@ -151,15 +175,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="New Text Document_2" connectionId="5" xr16:uid="{7184E770-B0E9-4A39-B086-E504F64FD830}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="New Text Document_1" connectionId="4" xr16:uid="{E5A01397-BB5B-4E8E-867F-59C64F4245C7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="New Text Document" connectionId="3" xr16:uid="{7310EB7D-E915-49FE-955C-75DFCCE1E3F7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Deaths" connectionId="2" xr16:uid="{8FE1CF55-CFB8-42BD-87AD-759AFB6FD5B8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Daily Cases" connectionId="1" xr16:uid="{57917421-F7FE-4EFB-ACAE-E03E208DBA81}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Total Cases" connectionId="3" xr16:uid="{FF5C8CBF-05E6-434C-B4D8-FE7156928288}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Total Cases" connectionId="6" xr16:uid="{FF5C8CBF-05E6-434C-B4D8-FE7156928288}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,17 +461,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D207"/>
+  <dimension ref="A1:D233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="F204" sqref="F204"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="F232" sqref="F232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3336,6 +3371,370 @@
         <v>2014</v>
       </c>
     </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" s="2">
+        <v>44837</v>
+      </c>
+      <c r="C208" s="3">
+        <v>245</v>
+      </c>
+      <c r="D208" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" s="2">
+        <v>45306</v>
+      </c>
+      <c r="C209" s="3">
+        <v>469</v>
+      </c>
+      <c r="D209" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" s="2">
+        <v>45711</v>
+      </c>
+      <c r="C210" s="3">
+        <v>405</v>
+      </c>
+      <c r="D210" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" s="2">
+        <v>46239</v>
+      </c>
+      <c r="C211" s="3">
+        <v>528</v>
+      </c>
+      <c r="D211" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" s="2">
+        <v>46704</v>
+      </c>
+      <c r="C212" s="3">
+        <v>465</v>
+      </c>
+      <c r="D212" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" s="2">
+        <v>47179</v>
+      </c>
+      <c r="C213" s="3">
+        <v>475</v>
+      </c>
+      <c r="D213" s="4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" s="2">
+        <v>47436</v>
+      </c>
+      <c r="C214" s="3">
+        <v>257</v>
+      </c>
+      <c r="D214" s="4">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" s="2">
+        <v>47751</v>
+      </c>
+      <c r="C215" s="3">
+        <v>315</v>
+      </c>
+      <c r="D215" s="4">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" s="2">
+        <v>48265</v>
+      </c>
+      <c r="C216" s="3">
+        <v>514</v>
+      </c>
+      <c r="D216" s="4">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" s="2">
+        <v>48795</v>
+      </c>
+      <c r="C217" s="3">
+        <v>530</v>
+      </c>
+      <c r="D217" s="4">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" s="2">
+        <v>49283</v>
+      </c>
+      <c r="C218" s="3">
+        <v>488</v>
+      </c>
+      <c r="D218" s="4">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" s="2">
+        <v>49283</v>
+      </c>
+      <c r="C219" s="3">
+        <v>0</v>
+      </c>
+      <c r="D219" s="4">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" s="2">
+        <v>49283</v>
+      </c>
+      <c r="C220" s="3">
+        <v>0</v>
+      </c>
+      <c r="D220" s="4">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" s="2">
+        <v>50378</v>
+      </c>
+      <c r="C221" s="3">
+        <v>1095</v>
+      </c>
+      <c r="D221" s="4">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" s="2">
+        <v>50664</v>
+      </c>
+      <c r="C222" s="3">
+        <v>286</v>
+      </c>
+      <c r="D222" s="4">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" s="2">
+        <v>51101</v>
+      </c>
+      <c r="C223" s="3">
+        <v>437</v>
+      </c>
+      <c r="D223" s="4">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" s="2">
+        <v>51492</v>
+      </c>
+      <c r="C224" s="3">
+        <v>391</v>
+      </c>
+      <c r="D224" s="4">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" s="2">
+        <v>51864</v>
+      </c>
+      <c r="C225" s="3">
+        <v>372</v>
+      </c>
+      <c r="D225" s="4">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" s="2">
+        <v>51864</v>
+      </c>
+      <c r="C226" s="3">
+        <v>0</v>
+      </c>
+      <c r="D226" s="4">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" s="2">
+        <v>51864</v>
+      </c>
+      <c r="C227" s="3">
+        <v>0</v>
+      </c>
+      <c r="D227" s="4">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" s="2">
+        <v>52646</v>
+      </c>
+      <c r="C228" s="3">
+        <v>782</v>
+      </c>
+      <c r="D228" s="4">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" s="2">
+        <v>52871</v>
+      </c>
+      <c r="C229" s="3">
+        <v>225</v>
+      </c>
+      <c r="D229" s="4">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" s="2">
+        <v>53282</v>
+      </c>
+      <c r="C230" s="3">
+        <v>411</v>
+      </c>
+      <c r="D230" s="4">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" s="2">
+        <v>53832</v>
+      </c>
+      <c r="C231" s="3">
+        <v>550</v>
+      </c>
+      <c r="D231" s="4">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" s="2">
+        <v>54384</v>
+      </c>
+      <c r="C232" s="3">
+        <v>552</v>
+      </c>
+      <c r="D232" s="4">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" s="2">
+        <v>54384</v>
+      </c>
+      <c r="C233" s="3">
+        <v>0</v>
+      </c>
+      <c r="D233" s="4">
+        <v>2076</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/Csaki/Elvetia.xlsx
+++ b/Database/Csaki/Elvetia.xlsx
@@ -5,22 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F120FE-197F-4545-9DCE-61A493586DEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A7D4EA-E62C-47AD-AF62-37D4EEE2B611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="135" windowWidth="15165" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="864" yWindow="0" windowWidth="11460" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="Daily_Cases" localSheetId="0">Sheet1!$C$2:$C$172</definedName>
-    <definedName name="Deaths" localSheetId="0">Sheet1!$D$2:$D$172</definedName>
-    <definedName name="New_Text_Document" localSheetId="0">Sheet1!$D$208:$D$233</definedName>
-    <definedName name="New_Text_Document_1" localSheetId="0">Sheet1!$C$208:$C$233</definedName>
-    <definedName name="New_Text_Document_2" localSheetId="0">Sheet1!$B$208:$B$233</definedName>
+    <definedName name="Deaths" localSheetId="0">Sheet1!$D$2:$D$21</definedName>
     <definedName name="Total_Cases" localSheetId="0">Sheet1!$B$2:$B$172</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -48,28 +45,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{A9FE87DB-10B8-4128-9564-03BFF824F00D}" name="New Text Document" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\Lajos Csaki\Desktop\New Text Document.txt">
-      <textFields>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="4" xr16:uid="{F21269D6-D452-4F0D-A35B-21C6CE6BA720}" name="New Text Document1" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\Lajos Csaki\Desktop\New Text Document.txt">
-      <textFields>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="5" xr16:uid="{211C264F-95B3-4828-A91A-6751FDCD1B62}" name="New Text Document2" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\Lajos Csaki\Desktop\New Text Document.txt">
-      <textFields>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="6" xr16:uid="{0DA10813-4BF5-4FB4-9FF6-ABD7C2653584}" name="Total Cases" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" xr16:uid="{0DA10813-4BF5-4FB4-9FF6-ABD7C2653584}" name="Total Cases" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Lajos Csaki\Desktop\Total Cases.txt">
       <textFields>
         <textField/>
@@ -175,27 +151,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="New Text Document_2" connectionId="5" xr16:uid="{7184E770-B0E9-4A39-B086-E504F64FD830}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Deaths" connectionId="2" xr16:uid="{8FE1CF55-CFB8-42BD-87AD-759AFB6FD5B8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="New Text Document_1" connectionId="4" xr16:uid="{E5A01397-BB5B-4E8E-867F-59C64F4245C7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Daily Cases" connectionId="1" xr16:uid="{57917421-F7FE-4EFB-ACAE-E03E208DBA81}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="New Text Document" connectionId="3" xr16:uid="{7310EB7D-E915-49FE-955C-75DFCCE1E3F7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Deaths" connectionId="2" xr16:uid="{8FE1CF55-CFB8-42BD-87AD-759AFB6FD5B8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Daily Cases" connectionId="1" xr16:uid="{57917421-F7FE-4EFB-ACAE-E03E208DBA81}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Total Cases" connectionId="6" xr16:uid="{FF5C8CBF-05E6-434C-B4D8-FE7156928288}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Total Cases" connectionId="3" xr16:uid="{FF5C8CBF-05E6-434C-B4D8-FE7156928288}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,19 +425,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D233"/>
+  <dimension ref="A1:D261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="F232" sqref="F232"/>
+    <sheetView tabSelected="1" topLeftCell="A249" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D261" sqref="D22:D261"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -501,7 +466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -515,7 +480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -529,7 +494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -543,7 +508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -557,7 +522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -571,7 +536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -585,7 +550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -599,7 +564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -613,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -627,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -641,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -655,7 +620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -669,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -683,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -697,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -711,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -725,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -739,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -753,7 +718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -764,10 +729,10 @@
         <v>27</v>
       </c>
       <c r="D21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -781,7 +746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -795,7 +760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -806,10 +771,10 @@
         <v>64</v>
       </c>
       <c r="D24" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -823,7 +788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -834,10 +799,10 @@
         <v>123</v>
       </c>
       <c r="D26" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -848,10 +813,10 @@
         <v>155</v>
       </c>
       <c r="D27" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -865,7 +830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -876,10 +841,10 @@
         <v>271</v>
       </c>
       <c r="D29" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -890,10 +855,10 @@
         <v>236</v>
       </c>
       <c r="D30" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -907,7 +872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -918,10 +883,10 @@
         <v>136</v>
       </c>
       <c r="D32" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -932,10 +897,10 @@
         <v>389</v>
       </c>
       <c r="D33" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -946,10 +911,10 @@
         <v>373</v>
       </c>
       <c r="D34" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -960,10 +925,10 @@
         <v>1107</v>
       </c>
       <c r="D35" s="4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -974,10 +939,10 @@
         <v>1393</v>
       </c>
       <c r="D36" s="4">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -988,10 +953,10 @@
         <v>1248</v>
       </c>
       <c r="D37" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1002,10 +967,10 @@
         <v>611</v>
       </c>
       <c r="D38" s="4">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1016,10 +981,10 @@
         <v>1321</v>
       </c>
       <c r="D39" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1030,10 +995,10 @@
         <v>1082</v>
       </c>
       <c r="D40" s="4">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1044,10 +1009,10 @@
         <v>1020</v>
       </c>
       <c r="D41" s="4">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1058,10 +1023,10 @@
         <v>914</v>
       </c>
       <c r="D42" s="4">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1072,10 +1037,10 @@
         <v>1117</v>
       </c>
       <c r="D43" s="4">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1086,10 +1051,10 @@
         <v>1148</v>
       </c>
       <c r="D44" s="4">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1100,10 +1065,10 @@
         <v>753</v>
       </c>
       <c r="D45" s="4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1114,10 +1079,10 @@
         <v>1093</v>
       </c>
       <c r="D46" s="4">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1128,10 +1093,10 @@
         <v>683</v>
       </c>
       <c r="D47" s="4">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1142,10 +1107,10 @@
         <v>1163</v>
       </c>
       <c r="D48" s="4">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1156,10 +1121,10 @@
         <v>1059</v>
       </c>
       <c r="D49" s="4">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1170,10 +1135,10 @@
         <v>779</v>
       </c>
       <c r="D50" s="4">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1184,10 +1149,10 @@
         <v>899</v>
       </c>
       <c r="D51" s="4">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1198,10 +1163,10 @@
         <v>595</v>
       </c>
       <c r="D52" s="4">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1212,10 +1177,10 @@
         <v>557</v>
       </c>
       <c r="D53" s="4">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1226,10 +1191,10 @@
         <v>596</v>
       </c>
       <c r="D54" s="4">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1240,10 +1205,10 @@
         <v>1027</v>
       </c>
       <c r="D55" s="4">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1254,10 +1219,10 @@
         <v>771</v>
       </c>
       <c r="D56" s="4">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1268,10 +1233,10 @@
         <v>500</v>
       </c>
       <c r="D57" s="4">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1282,10 +1247,10 @@
         <v>556</v>
       </c>
       <c r="D58" s="4">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1296,10 +1261,10 @@
         <v>308</v>
       </c>
       <c r="D59" s="4">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1310,10 +1275,10 @@
         <v>273</v>
       </c>
       <c r="D60" s="4">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1324,10 +1289,10 @@
         <v>248</v>
       </c>
       <c r="D61" s="4">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1338,10 +1303,10 @@
         <v>400</v>
       </c>
       <c r="D62" s="4">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1352,10 +1317,10 @@
         <v>396</v>
       </c>
       <c r="D63" s="4">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1366,10 +1331,10 @@
         <v>346</v>
       </c>
       <c r="D64" s="4">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1380,10 +1345,10 @@
         <v>326</v>
       </c>
       <c r="D65" s="4">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1394,10 +1359,10 @@
         <v>336</v>
       </c>
       <c r="D66" s="4">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1408,10 +1373,10 @@
         <v>204</v>
       </c>
       <c r="D67" s="4">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1422,10 +1387,10 @@
         <v>119</v>
       </c>
       <c r="D68" s="4">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1436,10 +1401,10 @@
         <v>205</v>
       </c>
       <c r="D69" s="4">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1450,10 +1415,10 @@
         <v>228</v>
       </c>
       <c r="D70" s="4">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1464,10 +1429,10 @@
         <v>181</v>
       </c>
       <c r="D71" s="4">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1481,7 +1446,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1492,10 +1457,10 @@
         <v>167</v>
       </c>
       <c r="D73" s="4">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1506,10 +1471,10 @@
         <v>103</v>
       </c>
       <c r="D74" s="4">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1520,10 +1485,10 @@
         <v>100</v>
       </c>
       <c r="D75" s="4">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1534,10 +1499,10 @@
         <v>143</v>
       </c>
       <c r="D76" s="4">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1548,10 +1513,10 @@
         <v>179</v>
       </c>
       <c r="D77" s="4">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1562,10 +1527,10 @@
         <v>119</v>
       </c>
       <c r="D78" s="4">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1576,10 +1541,10 @@
         <v>112</v>
       </c>
       <c r="D79" s="4">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1590,10 +1555,10 @@
         <v>88</v>
       </c>
       <c r="D80" s="4">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1604,10 +1569,10 @@
         <v>76</v>
       </c>
       <c r="D81" s="4">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1618,10 +1583,10 @@
         <v>28</v>
       </c>
       <c r="D82" s="4">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1632,10 +1597,10 @@
         <v>51</v>
       </c>
       <c r="D83" s="4">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1646,10 +1611,10 @@
         <v>66</v>
       </c>
       <c r="D84" s="4">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1660,10 +1625,10 @@
         <v>81</v>
       </c>
       <c r="D85" s="4">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1674,10 +1639,10 @@
         <v>44</v>
       </c>
       <c r="D86" s="4">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1688,10 +1653,10 @@
         <v>54</v>
       </c>
       <c r="D87" s="4">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1702,10 +1667,10 @@
         <v>39</v>
       </c>
       <c r="D88" s="4">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1716,10 +1681,10 @@
         <v>36</v>
       </c>
       <c r="D89" s="4">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1730,10 +1695,10 @@
         <v>33</v>
       </c>
       <c r="D90" s="4">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1744,10 +1709,10 @@
         <v>50</v>
       </c>
       <c r="D91" s="4">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1758,10 +1723,10 @@
         <v>51</v>
       </c>
       <c r="D92" s="4">
-        <v>1878</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1772,10 +1737,10 @@
         <v>58</v>
       </c>
       <c r="D93" s="4">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1786,10 +1751,10 @@
         <v>15</v>
       </c>
       <c r="D94" s="4">
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1800,10 +1765,10 @@
         <v>10</v>
       </c>
       <c r="D95" s="4">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1814,10 +1779,10 @@
         <v>21</v>
       </c>
       <c r="D96" s="4">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1828,10 +1793,10 @@
         <v>40</v>
       </c>
       <c r="D97" s="4">
-        <v>1892</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1842,10 +1807,10 @@
         <v>36</v>
       </c>
       <c r="D98" s="4">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1856,10 +1821,10 @@
         <v>13</v>
       </c>
       <c r="D99" s="4">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -1870,10 +1835,10 @@
         <v>18</v>
       </c>
       <c r="D100" s="4">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -1884,10 +1849,10 @@
         <v>11</v>
       </c>
       <c r="D101" s="4">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -1898,10 +1863,10 @@
         <v>10</v>
       </c>
       <c r="D102" s="4">
-        <v>1913</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -1912,10 +1877,10 @@
         <v>15</v>
       </c>
       <c r="D103" s="4">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -1926,10 +1891,10 @@
         <v>15</v>
       </c>
       <c r="D104" s="4">
-        <v>1917</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -1940,10 +1905,10 @@
         <v>20</v>
       </c>
       <c r="D105" s="4">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -1954,10 +1919,10 @@
         <v>32</v>
       </c>
       <c r="D106" s="4">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -1968,10 +1933,10 @@
         <v>17</v>
       </c>
       <c r="D107" s="4">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -1982,10 +1947,10 @@
         <v>17</v>
       </c>
       <c r="D108" s="4">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -1996,10 +1961,10 @@
         <v>9</v>
       </c>
       <c r="D109" s="4">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2010,10 +1975,10 @@
         <v>3</v>
       </c>
       <c r="D110" s="4">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2024,10 +1989,10 @@
         <v>19</v>
       </c>
       <c r="D111" s="4">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2038,10 +2003,10 @@
         <v>20</v>
       </c>
       <c r="D112" s="4">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2052,10 +2017,10 @@
         <v>23</v>
       </c>
       <c r="D113" s="4">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2066,10 +2031,10 @@
         <v>20</v>
       </c>
       <c r="D114" s="4">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2080,10 +2045,10 @@
         <v>9</v>
       </c>
       <c r="D115" s="4">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2094,10 +2059,10 @@
         <v>7</v>
       </c>
       <c r="D116" s="4">
-        <v>1923</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2108,10 +2073,10 @@
         <v>16</v>
       </c>
       <c r="D117" s="4">
-        <v>1934</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2122,10 +2087,10 @@
         <v>23</v>
       </c>
       <c r="D118" s="4">
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2136,10 +2101,10 @@
         <v>33</v>
       </c>
       <c r="D119" s="4">
-        <v>1937</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2150,10 +2115,10 @@
         <v>19</v>
       </c>
       <c r="D120" s="4">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -2164,10 +2129,10 @@
         <v>31</v>
       </c>
       <c r="D121" s="4">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -2178,10 +2143,10 @@
         <v>23</v>
       </c>
       <c r="D122" s="4">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -2192,10 +2157,10 @@
         <v>14</v>
       </c>
       <c r="D123" s="4">
-        <v>1939</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -2206,10 +2171,10 @@
         <v>23</v>
       </c>
       <c r="D124" s="4">
-        <v>1954</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -2220,10 +2185,10 @@
         <v>33</v>
       </c>
       <c r="D125" s="4">
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -2234,10 +2199,10 @@
         <v>13</v>
       </c>
       <c r="D126" s="4">
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -2248,10 +2213,10 @@
         <v>35</v>
       </c>
       <c r="D127" s="4">
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -2262,10 +2227,10 @@
         <v>8</v>
       </c>
       <c r="D128" s="4">
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -2276,10 +2241,10 @@
         <v>49</v>
       </c>
       <c r="D129" s="4">
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -2290,10 +2255,10 @@
         <v>18</v>
       </c>
       <c r="D130" s="4">
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -2304,10 +2269,10 @@
         <v>22</v>
       </c>
       <c r="D131" s="4">
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -2318,10 +2283,10 @@
         <v>44</v>
       </c>
       <c r="D132" s="4">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -2332,10 +2297,10 @@
         <v>52</v>
       </c>
       <c r="D133" s="4">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -2346,10 +2311,10 @@
         <v>58</v>
       </c>
       <c r="D134" s="4">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -2360,10 +2325,10 @@
         <v>69</v>
       </c>
       <c r="D135" s="4">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -2374,10 +2339,10 @@
         <v>62</v>
       </c>
       <c r="D136" s="4">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -2388,10 +2353,10 @@
         <v>35</v>
       </c>
       <c r="D137" s="4">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -2402,10 +2367,10 @@
         <v>62</v>
       </c>
       <c r="D138" s="4">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -2416,10 +2381,10 @@
         <v>137</v>
       </c>
       <c r="D139" s="4">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -2430,10 +2395,10 @@
         <v>116</v>
       </c>
       <c r="D140" s="4">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -2444,10 +2409,10 @@
         <v>134</v>
       </c>
       <c r="D141" s="4">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -2458,10 +2423,10 @@
         <v>97</v>
       </c>
       <c r="D142" s="4">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -2472,10 +2437,10 @@
         <v>70</v>
       </c>
       <c r="D143" s="4">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -2486,10 +2451,10 @@
         <v>47</v>
       </c>
       <c r="D144" s="4">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -2500,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="D145" s="4">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -2514,10 +2479,10 @@
         <v>129</v>
       </c>
       <c r="D146" s="4">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -2528,10 +2493,10 @@
         <v>88</v>
       </c>
       <c r="D147" s="4">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -2542,10 +2507,10 @@
         <v>104</v>
       </c>
       <c r="D148" s="4">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -2556,10 +2521,10 @@
         <v>108</v>
       </c>
       <c r="D149" s="4">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -2570,10 +2535,10 @@
         <v>85</v>
       </c>
       <c r="D150" s="4">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -2584,10 +2549,10 @@
         <v>63</v>
       </c>
       <c r="D151" s="4">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -2598,10 +2563,10 @@
         <v>70</v>
       </c>
       <c r="D152" s="4">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -2612,10 +2577,10 @@
         <v>132</v>
       </c>
       <c r="D153" s="4">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -2626,10 +2591,10 @@
         <v>142</v>
       </c>
       <c r="D154" s="4">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -2640,10 +2605,10 @@
         <v>92</v>
       </c>
       <c r="D155" s="4">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -2654,10 +2619,10 @@
         <v>110</v>
       </c>
       <c r="D156" s="4">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -2668,10 +2633,10 @@
         <v>99</v>
       </c>
       <c r="D157" s="4">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -2682,10 +2647,10 @@
         <v>43</v>
       </c>
       <c r="D158" s="4">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -2696,10 +2661,10 @@
         <v>108</v>
       </c>
       <c r="D159" s="4">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -2710,10 +2675,10 @@
         <v>141</v>
       </c>
       <c r="D160" s="4">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -2724,10 +2689,10 @@
         <v>117</v>
       </c>
       <c r="D161" s="4">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -2738,10 +2703,10 @@
         <v>154</v>
       </c>
       <c r="D162" s="4">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -2752,10 +2717,10 @@
         <v>148</v>
       </c>
       <c r="D163" s="4">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -2766,10 +2731,10 @@
         <v>110</v>
       </c>
       <c r="D164" s="4">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -2780,10 +2745,10 @@
         <v>65</v>
       </c>
       <c r="D165" s="4">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -2794,10 +2759,10 @@
         <v>132</v>
       </c>
       <c r="D166" s="4">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -2808,10 +2773,10 @@
         <v>193</v>
       </c>
       <c r="D167" s="4">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -2822,10 +2787,10 @@
         <v>220</v>
       </c>
       <c r="D168" s="4">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -2836,10 +2801,10 @@
         <v>210</v>
       </c>
       <c r="D169" s="4">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -2850,10 +2815,10 @@
         <v>180</v>
       </c>
       <c r="D170" s="4">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -2864,10 +2829,10 @@
         <v>138</v>
       </c>
       <c r="D171" s="4">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -2878,10 +2843,10 @@
         <v>66</v>
       </c>
       <c r="D172" s="4">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -2892,10 +2857,10 @@
         <v>130</v>
       </c>
       <c r="D173" s="4">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -2906,10 +2871,10 @@
         <v>181</v>
       </c>
       <c r="D174" s="4">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -2920,10 +2885,10 @@
         <v>181</v>
       </c>
       <c r="D175" s="4">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -2934,10 +2899,10 @@
         <v>161</v>
       </c>
       <c r="D176" s="4">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -2948,10 +2913,10 @@
         <v>182</v>
       </c>
       <c r="D177" s="4">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -2962,10 +2927,10 @@
         <v>152</v>
       </c>
       <c r="D178" s="4">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -2976,10 +2941,10 @@
         <v>105</v>
       </c>
       <c r="D179" s="4">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -2990,10 +2955,10 @@
         <v>187</v>
       </c>
       <c r="D180" s="4">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -3004,10 +2969,10 @@
         <v>274</v>
       </c>
       <c r="D181" s="4">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -3018,10 +2983,10 @@
         <v>234</v>
       </c>
       <c r="D182" s="4">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -3032,10 +2997,10 @@
         <v>268</v>
       </c>
       <c r="D183" s="4">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -3046,10 +3011,10 @@
         <v>253</v>
       </c>
       <c r="D184" s="4">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -3060,10 +3025,10 @@
         <v>200</v>
       </c>
       <c r="D185" s="4">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -3074,10 +3039,10 @@
         <v>128</v>
       </c>
       <c r="D186" s="4">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -3088,10 +3053,10 @@
         <v>197</v>
       </c>
       <c r="D187" s="4">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -3102,10 +3067,10 @@
         <v>311</v>
       </c>
       <c r="D188" s="4">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -3116,10 +3081,10 @@
         <v>266</v>
       </c>
       <c r="D189" s="4">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -3130,10 +3095,10 @@
         <v>306</v>
       </c>
       <c r="D190" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -3144,10 +3109,10 @@
         <v>295</v>
       </c>
       <c r="D191" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -3158,10 +3123,10 @@
         <v>276</v>
       </c>
       <c r="D192" s="4">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -3172,10 +3137,10 @@
         <v>157</v>
       </c>
       <c r="D193" s="4">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -3186,10 +3151,10 @@
         <v>202</v>
       </c>
       <c r="D194" s="4">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -3200,10 +3165,10 @@
         <v>383</v>
       </c>
       <c r="D195" s="4">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -3214,10 +3179,10 @@
         <v>361</v>
       </c>
       <c r="D196" s="4">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -3228,10 +3193,10 @@
         <v>340</v>
       </c>
       <c r="D197" s="4">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -3242,10 +3207,10 @@
         <v>376</v>
       </c>
       <c r="D198" s="4">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -3256,10 +3221,10 @@
         <v>292</v>
       </c>
       <c r="D199" s="4">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -3270,10 +3235,10 @@
         <v>163</v>
       </c>
       <c r="D200" s="4">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -3284,10 +3249,10 @@
         <v>216</v>
       </c>
       <c r="D201" s="4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -3298,10 +3263,10 @@
         <v>370</v>
       </c>
       <c r="D202" s="4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -3312,10 +3277,10 @@
         <v>364</v>
       </c>
       <c r="D203" s="4">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -3326,10 +3291,10 @@
         <v>405</v>
       </c>
       <c r="D204" s="4">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -3340,10 +3305,10 @@
         <v>425</v>
       </c>
       <c r="D205" s="4">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -3354,10 +3319,10 @@
         <v>444</v>
       </c>
       <c r="D206" s="4">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -3368,10 +3333,10 @@
         <v>191</v>
       </c>
       <c r="D207" s="4">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -3382,10 +3347,10 @@
         <v>245</v>
       </c>
       <c r="D208" s="4">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -3396,10 +3361,10 @@
         <v>469</v>
       </c>
       <c r="D209" s="4">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -3410,10 +3375,10 @@
         <v>405</v>
       </c>
       <c r="D210" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -3424,10 +3389,10 @@
         <v>528</v>
       </c>
       <c r="D211" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -3438,10 +3403,10 @@
         <v>465</v>
       </c>
       <c r="D212" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -3452,10 +3417,10 @@
         <v>475</v>
       </c>
       <c r="D213" s="4">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -3466,10 +3431,10 @@
         <v>257</v>
       </c>
       <c r="D214" s="4">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -3480,10 +3445,10 @@
         <v>315</v>
       </c>
       <c r="D215" s="4">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -3494,10 +3459,10 @@
         <v>514</v>
       </c>
       <c r="D216" s="4">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -3508,10 +3473,10 @@
         <v>530</v>
       </c>
       <c r="D217" s="4">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -3522,10 +3487,10 @@
         <v>488</v>
       </c>
       <c r="D218" s="4">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -3536,10 +3501,10 @@
         <v>0</v>
       </c>
       <c r="D219" s="4">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -3550,10 +3515,10 @@
         <v>0</v>
       </c>
       <c r="D220" s="4">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -3564,10 +3529,10 @@
         <v>1095</v>
       </c>
       <c r="D221" s="4">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -3578,10 +3543,10 @@
         <v>286</v>
       </c>
       <c r="D222" s="4">
-        <v>2054</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -3592,10 +3557,10 @@
         <v>437</v>
       </c>
       <c r="D223" s="4">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -3606,10 +3571,10 @@
         <v>391</v>
       </c>
       <c r="D224" s="4">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -3620,10 +3585,10 @@
         <v>372</v>
       </c>
       <c r="D225" s="4">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -3634,10 +3599,10 @@
         <v>0</v>
       </c>
       <c r="D226" s="4">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -3648,10 +3613,10 @@
         <v>0</v>
       </c>
       <c r="D227" s="4">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -3662,10 +3627,10 @@
         <v>782</v>
       </c>
       <c r="D228" s="4">
-        <v>2065</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -3676,10 +3641,10 @@
         <v>225</v>
       </c>
       <c r="D229" s="4">
-        <v>2069</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -3690,10 +3655,10 @@
         <v>411</v>
       </c>
       <c r="D230" s="4">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -3704,10 +3669,10 @@
         <v>550</v>
       </c>
       <c r="D231" s="4">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -3718,10 +3683,10 @@
         <v>552</v>
       </c>
       <c r="D232" s="4">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -3732,7 +3697,399 @@
         <v>0</v>
       </c>
       <c r="D233" s="4">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" s="2">
+        <v>54384</v>
+      </c>
+      <c r="C234" s="3">
+        <v>0</v>
+      </c>
+      <c r="D234" s="4">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" s="2">
+        <v>55932</v>
+      </c>
+      <c r="C235" s="3">
+        <v>1548</v>
+      </c>
+      <c r="D235" s="4">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" s="2">
+        <v>56632</v>
+      </c>
+      <c r="C236" s="3">
+        <v>700</v>
+      </c>
+      <c r="D236" s="4">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" s="2">
+        <v>57709</v>
+      </c>
+      <c r="C237" s="3">
+        <v>1077</v>
+      </c>
+      <c r="D237" s="4">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" s="2">
+        <v>58881</v>
+      </c>
+      <c r="C238" s="3">
+        <v>1172</v>
+      </c>
+      <c r="D238" s="4">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" s="2">
+        <v>60368</v>
+      </c>
+      <c r="C239" s="3">
+        <v>1487</v>
+      </c>
+      <c r="D239" s="4">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" s="2">
+        <v>60368</v>
+      </c>
+      <c r="C240" s="3">
+        <v>0</v>
+      </c>
+      <c r="D240" s="4">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" s="2">
+        <v>60368</v>
+      </c>
+      <c r="C241" s="3">
+        <v>0</v>
+      </c>
+      <c r="D241" s="4">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" s="2">
+        <v>64436</v>
+      </c>
+      <c r="C242" s="3">
+        <v>4068</v>
+      </c>
+      <c r="D242" s="4">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" s="2">
+        <v>65881</v>
+      </c>
+      <c r="C243" s="3">
+        <v>1445</v>
+      </c>
+      <c r="D243" s="4">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" s="2">
+        <v>68704</v>
+      </c>
+      <c r="C244" s="3">
+        <v>2823</v>
+      </c>
+      <c r="D244" s="4">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" s="2">
+        <v>71317</v>
+      </c>
+      <c r="C245" s="3">
+        <v>2613</v>
+      </c>
+      <c r="D245" s="4">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" s="2">
+        <v>74422</v>
+      </c>
+      <c r="C246" s="3">
+        <v>3105</v>
+      </c>
+      <c r="D246" s="4">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" s="2">
+        <v>74422</v>
+      </c>
+      <c r="C247" s="3">
+        <v>0</v>
+      </c>
+      <c r="D247" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" s="2">
+        <v>74422</v>
+      </c>
+      <c r="C248" s="3">
+        <v>0</v>
+      </c>
+      <c r="D248" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" s="2">
+        <v>83159</v>
+      </c>
+      <c r="C249" s="3">
+        <v>8737</v>
+      </c>
+      <c r="D249" s="4">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" s="2">
+        <v>86167</v>
+      </c>
+      <c r="C250" s="3">
+        <v>3008</v>
+      </c>
+      <c r="D250" s="4">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" s="2">
+        <v>91763</v>
+      </c>
+      <c r="C251" s="3">
+        <v>5596</v>
+      </c>
+      <c r="D251" s="4">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" s="2">
+        <v>97019</v>
+      </c>
+      <c r="C252" s="3">
+        <v>5256</v>
+      </c>
+      <c r="D252" s="4">
         <v>2076</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" s="2">
+        <v>103653</v>
+      </c>
+      <c r="C253" s="3">
+        <v>6634</v>
+      </c>
+      <c r="D253" s="4">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" s="2">
+        <v>103653</v>
+      </c>
+      <c r="C254" s="3">
+        <v>0</v>
+      </c>
+      <c r="D254" s="4">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" s="2">
+        <v>103653</v>
+      </c>
+      <c r="C255" s="3">
+        <v>0</v>
+      </c>
+      <c r="D255" s="4">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" s="2">
+        <v>121093</v>
+      </c>
+      <c r="C256" s="3">
+        <v>17440</v>
+      </c>
+      <c r="D256" s="4">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" s="2">
+        <v>127042</v>
+      </c>
+      <c r="C257" s="3">
+        <v>5949</v>
+      </c>
+      <c r="D257" s="4">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" s="2">
+        <v>135658</v>
+      </c>
+      <c r="C258" s="3">
+        <v>8616</v>
+      </c>
+      <c r="D258" s="4">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" s="2">
+        <v>145044</v>
+      </c>
+      <c r="C259" s="3">
+        <v>9386</v>
+      </c>
+      <c r="D259" s="4">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" s="2">
+        <v>154251</v>
+      </c>
+      <c r="C260" s="3">
+        <v>9207</v>
+      </c>
+      <c r="D260" s="4">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" s="2">
+        <v>154251</v>
+      </c>
+      <c r="C261" s="3">
+        <v>0</v>
+      </c>
+      <c r="D261" s="4">
+        <v>2298</v>
       </c>
     </row>
   </sheetData>
